--- a/resources/configuration/CoursekeyTest.xlsx
+++ b/resources/configuration/CoursekeyTest.xlsx
@@ -3,114 +3,113 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE012F0-C731-4093-B667-0A50A0A9740F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8C6BC4-EA81-4482-B6C8-FFE922FC5C6B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13755" windowHeight="3375" tabRatio="908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13755" windowHeight="3375" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
     <sheet name="Test Steps" sheetId="1" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="9" r:id="rId3"/>
-    <sheet name="InstructorLoginData" sheetId="3" r:id="rId4"/>
-    <sheet name="StudentLoginData" sheetId="7" r:id="rId5"/>
-    <sheet name="LoginErrorMessages" sheetId="8" r:id="rId6"/>
-    <sheet name="Pages" sheetId="4" r:id="rId7"/>
-    <sheet name="Settings" sheetId="6" r:id="rId8"/>
+    <sheet name="InstructorLoginData" sheetId="3" r:id="rId3"/>
+    <sheet name="StudentLoginData" sheetId="7" r:id="rId4"/>
+    <sheet name="LoginErrorMessages" sheetId="8" r:id="rId5"/>
+    <sheet name="Pages" sheetId="4" r:id="rId6"/>
+    <sheet name="Settings" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="Action_Keywords" localSheetId="0">Settings!$A$2:$A$1048576</definedName>
     <definedName name="Action_Keywords">Settings!$A$2:$A$1048576</definedName>
-    <definedName name="allObjects" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="allObjects" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="allObjects" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="allObjects">Settings!#REF!</definedName>
     <definedName name="AttendancePage">Pages!$H:$H</definedName>
-    <definedName name="clickAndHold" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="clickAndHold" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="clickAndHold" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="clickAndHold">Settings!#REF!</definedName>
-    <definedName name="ClickOnTextItem" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="ClickOnTextItem" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="ClickOnTextItem">Settings!#REF!</definedName>
-    <definedName name="conditionOfElementIs" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="conditionOfElementIs" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="conditionOfElementIs">Settings!#REF!</definedName>
     <definedName name="CreateAssessment">Pages!$G$2:$G$1048576</definedName>
     <definedName name="CreateCoursePage">Pages!$E$2:$E$1048576</definedName>
-    <definedName name="DDTMode" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="DDTMode" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="ddtMode" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="DDTMode">Settings!#REF!</definedName>
-    <definedName name="deselectElementDropDown" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="deselectElementDropDown" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="deselectElementDropDown" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="deselectElementDropDown">Settings!#REF!</definedName>
-    <definedName name="doubleClick" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="doubleClick" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="doubleClick" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="doubleClick">Settings!#REF!</definedName>
-    <definedName name="explicitWait" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="explicitWait" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="explicitWait" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="explicitWait">Settings!#REF!</definedName>
-    <definedName name="getFromObject" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="getFromObject" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="getFromObject">Settings!#REF!</definedName>
-    <definedName name="getFromPage" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="getFromPage" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="getFromPage">Settings!#REF!</definedName>
     <definedName name="Gradebook">Pages!$F$2:$F$1048576</definedName>
     <definedName name="Home_Page" localSheetId="0">Pages!#REF!</definedName>
     <definedName name="implicitWait" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="InboxPage">Pages!$I$2:$I$34</definedName>
-    <definedName name="inputActions" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="inputActions" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="inputActions" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="inputActions">Settings!#REF!</definedName>
     <definedName name="JavaDocs_Page" localSheetId="0">Pages!#REF!</definedName>
-    <definedName name="keyDown" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="keyDown" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="keyDown" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="keyDown">Settings!#REF!</definedName>
-    <definedName name="keyUp" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="keyUp" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="keyUp" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="keyUp">Settings!#REF!</definedName>
     <definedName name="Login_Page" localSheetId="0">Pages!#REF!</definedName>
     <definedName name="LoginPage">Pages!$B$2:$B$1048576</definedName>
     <definedName name="Mercury_Register" localSheetId="0">Pages!#REF!</definedName>
-    <definedName name="multipleGetObject" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="multipleGetObject" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="multipleGetObject" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="multipleGetObject">Settings!#REF!</definedName>
-    <definedName name="multipleGetPage" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="multipleGetPage" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="multipleGetPage" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="multipleGetPage">Settings!#REF!</definedName>
     <definedName name="multipleObjectGet" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="multiplePageGet" localSheetId="0">Settings!#REF!</definedName>
-    <definedName name="Object_Type" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="Object_Type" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="Object_Type" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="Object_Type">Settings!#REF!</definedName>
     <definedName name="Page_Name" localSheetId="0">Pages!$A$2:$A$1048576</definedName>
     <definedName name="Page_Name">Pages!$A$2:$A$1048576</definedName>
     <definedName name="PopUpWin_Page" localSheetId="0">Pages!#REF!</definedName>
     <definedName name="ProfilePage">Pages!$D$2:$D$1048576</definedName>
-    <definedName name="release" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="release" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="release" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="release">Settings!#REF!</definedName>
-    <definedName name="rightClick" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="rightClick" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="rightClick" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="rightClick">Settings!#REF!</definedName>
-    <definedName name="runMode" localSheetId="4">[1]Settings!#REF!</definedName>
+    <definedName name="runMode" localSheetId="3">[1]Settings!#REF!</definedName>
     <definedName name="runMode">[1]Settings!#REF!</definedName>
-    <definedName name="SearchObjectByText" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="SearchObjectByText" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="SearchObjectByText">Settings!#REF!</definedName>
-    <definedName name="selectCondition" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="selectCondition" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="selectCondition" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="selectCondition">Settings!#REF!</definedName>
-    <definedName name="selectElementDropDown" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="selectElementDropDown" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="selectElementDropDown" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="selectElementDropDown">Settings!#REF!</definedName>
     <definedName name="SendAssesment">Pages!#REF!</definedName>
     <definedName name="SendAssessment">Pages!$J:$J</definedName>
     <definedName name="SignUpPage">Pages!$C$2:$C$1048576</definedName>
-    <definedName name="Store_Home_Page" localSheetId="4">Pages!#REF!</definedName>
+    <definedName name="Store_Home_Page" localSheetId="3">Pages!#REF!</definedName>
     <definedName name="Store_Home_Page" localSheetId="0">Pages!#REF!</definedName>
     <definedName name="Store_Home_Page">Pages!#REF!</definedName>
-    <definedName name="Store_LogIn_Page" localSheetId="4">Pages!#REF!</definedName>
+    <definedName name="Store_LogIn_Page" localSheetId="3">Pages!#REF!</definedName>
     <definedName name="Store_LogIn_Page" localSheetId="0">Pages!#REF!</definedName>
     <definedName name="Store_LogIn_Page">Pages!#REF!</definedName>
-    <definedName name="switchToAlert" localSheetId="4">Settings!#REF!</definedName>
+    <definedName name="switchToAlert" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="switchToAlert" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="switchToAlert">Settings!#REF!</definedName>
     <definedName name="Test_Case_ID">'Test Cases'!$A$2:$A$1048576</definedName>
@@ -122,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5430" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="653">
   <si>
     <t>Description</t>
   </si>
@@ -2078,6 +2077,9 @@
   </si>
   <si>
     <t>Move to the logo</t>
+  </si>
+  <si>
+    <t>mod</t>
   </si>
 </sst>
 </file>
@@ -2633,687 +2635,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="212">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="144">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4759,8 +4081,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="211"/>
-      <tableStyleElement type="headerRow" dxfId="210"/>
+      <tableStyleElement type="wholeTable" dxfId="143"/>
+      <tableStyleElement type="headerRow" dxfId="142"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -5693,10 +5015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6233,7 +5555,7 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>485</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6250,7 +5572,7 @@
         <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>485</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6267,7 +5589,7 @@
         <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>485</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -6284,7 +5606,7 @@
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>485</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -6301,7 +5623,7 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>485</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -6318,7 +5640,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>485</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -6335,7 +5657,7 @@
         <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>485</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -6352,7 +5674,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>485</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -6369,7 +5691,7 @@
         <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>485</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -6386,7 +5708,7 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>485</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -6709,111 +6031,116 @@
         <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>485</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="82" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">
-    <cfRule type="containsText" dxfId="209" priority="52" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="141" priority="52" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="53" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="140" priority="53" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="207" priority="31" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="139" priority="31" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="32" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="138" priority="32" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="205" priority="29" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="137" priority="29" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="30" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="136" priority="30" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="203" priority="27" operator="containsText" text="NOT RUN">
+    <cfRule type="containsText" dxfId="135" priority="27" operator="containsText" text="NOT RUN">
       <formula>NOT(ISERROR(SEARCH("NOT RUN",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="28" operator="containsText" text="NOT RUN">
+    <cfRule type="containsText" dxfId="134" priority="28" operator="containsText" text="NOT RUN">
       <formula>NOT(ISERROR(SEARCH("NOT RUN",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2 E29:E35 E38:E46 E48:E52 E54:E1048576 E4:E27">
-    <cfRule type="containsText" dxfId="201" priority="19" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="133" priority="19" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="20" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="132" priority="20" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="199" priority="17" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="18" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="130" priority="18" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="197" priority="15" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="129" priority="15" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="16" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="128" priority="16" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="195" priority="13" operator="containsText" text="NOT RUN">
+    <cfRule type="containsText" dxfId="127" priority="13" operator="containsText" text="NOT RUN">
       <formula>NOT(ISERROR(SEARCH("NOT RUN",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="14" operator="containsText" text="NOT RUN">
+    <cfRule type="containsText" dxfId="126" priority="14" operator="containsText" text="NOT RUN">
       <formula>NOT(ISERROR(SEARCH("NOT RUN",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="193" priority="11" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="12" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="124" priority="12" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsText" dxfId="191" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="123" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="10" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="122" priority="10" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:E37">
-    <cfRule type="containsText" dxfId="189" priority="7" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="121" priority="7" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="120" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="containsText" dxfId="187" priority="5" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="119" priority="5" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="6" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="118" priority="6" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="containsText" dxfId="185" priority="1" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="117" priority="1" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="2" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="116" priority="2" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E53)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6834,7 +6161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:PS690"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A662" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A662" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G680" sqref="G680"/>
     </sheetView>
   </sheetViews>
@@ -24257,8 +23584,8 @@
       <c r="A685" s="50" t="s">
         <v>643</v>
       </c>
-      <c r="B685" s="4">
-        <v>27</v>
+      <c r="B685" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="C685" s="4" t="s">
         <v>487</v>
@@ -24283,8 +23610,8 @@
       <c r="A686" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="B686" s="4">
-        <v>28</v>
+      <c r="B686" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="C686" s="36" t="s">
         <v>256</v>
@@ -24307,8 +23634,8 @@
       <c r="A687" s="50" t="s">
         <v>643</v>
       </c>
-      <c r="B687" s="59">
-        <v>29</v>
+      <c r="B687" s="59" t="s">
+        <v>258</v>
       </c>
       <c r="C687" s="24" t="s">
         <v>122</v>
@@ -24333,8 +23660,8 @@
       <c r="A688" s="50" t="s">
         <v>643</v>
       </c>
-      <c r="B688" s="50">
-        <v>30</v>
+      <c r="B688" s="50" t="s">
+        <v>259</v>
       </c>
       <c r="C688" s="24" t="s">
         <v>164</v>
@@ -24359,8 +23686,8 @@
       <c r="A689" s="50" t="s">
         <v>643</v>
       </c>
-      <c r="B689" s="82">
-        <v>31</v>
+      <c r="B689" s="82" t="s">
+        <v>260</v>
       </c>
       <c r="C689" s="36" t="s">
         <v>107</v>
@@ -24385,8 +23712,8 @@
       <c r="A690" s="50" t="s">
         <v>643</v>
       </c>
-      <c r="B690" s="82">
-        <v>32</v>
+      <c r="B690" s="82" t="s">
+        <v>261</v>
       </c>
       <c r="C690" s="36" t="s">
         <v>263</v>
@@ -24407,434 +23734,434 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H5 H1:H3 H247:H250 H263:H266 H7:H13 H285 H287:H291">
-    <cfRule type="containsText" dxfId="183" priority="787" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="115" priority="787" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="788" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="114" priority="788" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 H2:H3 H247:H250 H263:H266 H7:H13 H285 H287:H291">
-    <cfRule type="containsText" dxfId="181" priority="785" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="113" priority="785" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="786" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="112" priority="786" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="179" priority="737" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="111" priority="737" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="738" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="110" priority="738" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="177" priority="739" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="109" priority="739" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="740" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="108" priority="740" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="175" priority="735" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="107" priority="735" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="736" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="106" priority="736" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="173" priority="733" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="105" priority="733" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="734" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="104" priority="734" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102:H244 H306 H318:H321 H294:H296 H299:H304 H247:H260 H1:H62 H263:H270 H309:H316 H324:H329 H342:H350 H360 H370 H379:H384 H388:H399 H274:H277 H279:H285 H287:H291 H407:H1048576">
-    <cfRule type="containsText" dxfId="171" priority="715" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="103" priority="715" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="716" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="102" priority="716" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H24 H15">
-    <cfRule type="containsText" dxfId="169" priority="713" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="101" priority="713" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="714" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="100" priority="714" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H24 H15">
-    <cfRule type="containsText" dxfId="167" priority="711" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="99" priority="711" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="712" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="98" priority="712" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="165" priority="707" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="97" priority="707" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="708" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="96" priority="708" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="163" priority="709" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="95" priority="709" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="710" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="94" priority="710" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="161" priority="705" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="93" priority="705" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="706" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="92" priority="706" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="159" priority="703" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="91" priority="703" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="704" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="90" priority="704" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",H14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:H101">
-    <cfRule type="containsText" dxfId="157" priority="699" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="89" priority="699" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="700" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="88" priority="700" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H271">
-    <cfRule type="containsText" dxfId="155" priority="695" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="87" priority="695" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H271)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="696" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="86" priority="696" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H317">
-    <cfRule type="containsText" dxfId="153" priority="689" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="85" priority="689" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H317)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="690" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="84" priority="690" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H317)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H331:H341">
-    <cfRule type="containsText" dxfId="151" priority="687" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="83" priority="687" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H331)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="688" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="82" priority="688" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H331)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H330">
-    <cfRule type="containsText" dxfId="149" priority="681" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="81" priority="681" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H330)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="682" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="80" priority="682" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H330)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H322">
-    <cfRule type="containsText" dxfId="147" priority="679" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="79" priority="679" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H322)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="680" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="78" priority="680" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H323">
-    <cfRule type="containsText" dxfId="145" priority="677" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="77" priority="677" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H323)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="678" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="76" priority="678" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H323)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="143" priority="669" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="75" priority="669" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H341)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="670" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="74" priority="670" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H352:H359">
-    <cfRule type="containsText" dxfId="141" priority="667" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="73" priority="667" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H352)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="668" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="72" priority="668" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H352)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H351">
-    <cfRule type="containsText" dxfId="139" priority="661" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="71" priority="661" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H351)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="662" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="70" priority="662" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H351)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H362:H369">
-    <cfRule type="containsText" dxfId="137" priority="659" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="69" priority="659" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H362)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="660" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="68" priority="660" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H362)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H361">
-    <cfRule type="containsText" dxfId="135" priority="653" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="67" priority="653" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H361)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="654" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="66" priority="654" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H361)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H372:H378">
-    <cfRule type="containsText" dxfId="133" priority="651" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="65" priority="651" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H372)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="652" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="64" priority="652" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H371">
-    <cfRule type="containsText" dxfId="131" priority="645" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="63" priority="645" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H371)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="646" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="62" priority="646" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H278:H279">
-    <cfRule type="containsText" dxfId="129" priority="639" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="61" priority="639" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H278)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="640" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="60" priority="640" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H292">
-    <cfRule type="containsText" dxfId="127" priority="633" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="59" priority="633" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H292)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="634" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="58" priority="634" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H292)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H285">
-    <cfRule type="containsText" dxfId="125" priority="621" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="57" priority="621" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="622" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="56" priority="622" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H297">
-    <cfRule type="containsText" dxfId="123" priority="615" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="55" priority="615" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H297)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="616" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="54" priority="616" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H297)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H307">
-    <cfRule type="containsText" dxfId="121" priority="609" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="53" priority="609" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H307)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="610" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="52" priority="610" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H400">
-    <cfRule type="containsText" dxfId="119" priority="605" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="51" priority="605" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H400)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="606" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="50" priority="606" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H400)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H405:H406">
-    <cfRule type="containsText" dxfId="117" priority="603" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="49" priority="603" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H405)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="604" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="48" priority="604" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H405)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H404">
-    <cfRule type="containsText" dxfId="115" priority="599" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="47" priority="599" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H404)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="600" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="46" priority="600" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H404)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H67">
-    <cfRule type="containsText" dxfId="83" priority="161" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="45" priority="161" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="162" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="44" priority="162" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H261">
-    <cfRule type="containsText" dxfId="81" priority="145" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="43" priority="145" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="146" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="42" priority="146" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H262">
-    <cfRule type="containsText" dxfId="79" priority="143" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="41" priority="143" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="144" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="40" priority="144" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H262">
-    <cfRule type="containsText" dxfId="77" priority="141" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="39" priority="141" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="142" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="38" priority="142" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H245">
-    <cfRule type="containsText" dxfId="75" priority="135" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="37" priority="135" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="136" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="36" priority="136" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H246">
-    <cfRule type="containsText" dxfId="73" priority="133" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="35" priority="133" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H246)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="134" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="34" priority="134" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H246)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H246">
-    <cfRule type="containsText" dxfId="71" priority="131" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="33" priority="131" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H246)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="132" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="32" priority="132" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H246)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H385:H387">
-    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="31" priority="51" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H385)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="30" priority="52" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H385)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H401:H403">
-    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H401)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="28" priority="50" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H401)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H272:H273">
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="27" priority="47" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H272)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="26" priority="48" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H272:H273">
-    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H272)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="24" priority="46" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H286">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H286)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="22" priority="44" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H286)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H286">
-    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="21" priority="41" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H286)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="20" priority="42" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H286)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H293">
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H293)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="18" priority="40" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H293">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H293)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="16" priority="38" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H298">
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H298)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="14" priority="36" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H298)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H298">
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H298)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="12" priority="34" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H298)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H308">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H308)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="10" priority="32" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H308)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H308">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="9" priority="29" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H308)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="8" priority="30" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H308)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24862,23 +24189,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91A2CAB-82E0-4DFD-B550-97F2B098B028}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AX3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24957,7 +24272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AX4"/>
   <sheetViews>
@@ -25059,7 +24374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -25161,7 +24476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
@@ -25852,7 +25167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B92"/>
   <sheetViews>
